--- a/REGULAR/OJT/GUANEZO, WILSON.xlsx
+++ b/REGULAR/OJT/GUANEZO, WILSON.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBAD344-3C2A-4953-A036-BAE466740D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19410" windowHeight="11010" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="203">
   <si>
     <t>PERIOD</t>
   </si>
@@ -645,19 +638,25 @@
   </si>
   <si>
     <t>FL(5-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,6 +697,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -888,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1098,6 +1104,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1547,7 +1556,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1590,7 +1599,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1654,7 +1663,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1714,7 +1723,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1780,7 +1789,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1843,7 +1852,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1941,7 +1950,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2000,7 +2009,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2065,7 +2074,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2108,7 +2117,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2183,7 +2192,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,7 +2378,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2444,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2493,7 +2502,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2559,7 +2568,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2624,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2690,7 +2699,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2733,7 +2742,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2799,7 +2808,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2855,7 +2864,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2953,7 +2962,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3016,7 +3025,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3065,7 +3074,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3082,25 +3091,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K479" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K489" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3112,13 +3121,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3127,14 +3136,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3438,7 +3447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3448,7 +3457,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3456,34 +3465,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K479"/>
+  <dimension ref="A2:K489"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A463" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A477" activePane="bottomLeft"/>
       <selection activeCell="G10" sqref="G10"/>
-      <selection pane="bottomLeft" activeCell="E475" sqref="E475"/>
+      <selection pane="bottomLeft" activeCell="K482" sqref="K482"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3504,7 +3513,7 @@
       <c r="J2" s="62"/>
       <c r="K2" s="63"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3522,7 +3531,7 @@
       <c r="J3" s="64"/>
       <c r="K3" s="65"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3540,7 +3549,7 @@
       <c r="J4" s="66"/>
       <c r="K4" s="67"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3548,7 +3557,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3561,7 +3570,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="60" t="s">
@@ -3578,7 +3587,7 @@
       <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3613,7 +3622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3622,7 +3631,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>144.38699999999994</v>
+        <v>141.88699999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3632,12 +3641,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>261.875</v>
+        <v>263.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3659,7 +3668,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>34780</v>
       </c>
@@ -3677,7 +3686,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>34790</v>
       </c>
@@ -3697,7 +3706,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>34820</v>
@@ -3718,7 +3727,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A20" si="0">EDATE(A13,1)</f>
         <v>34851</v>
@@ -3739,7 +3748,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>34881</v>
@@ -3760,7 +3769,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>34912</v>
@@ -3781,7 +3790,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>34943</v>
@@ -3802,7 +3811,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>34973</v>
@@ -3823,7 +3832,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f>EDATE(A18,1)</f>
         <v>35004</v>
@@ -3844,7 +3853,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>35034</v>
@@ -3865,7 +3874,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
         <v>44</v>
       </c>
@@ -3883,7 +3892,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>35065</v>
       </c>
@@ -3903,7 +3912,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <f>EDATE(A22,1)</f>
         <v>35096</v>
@@ -3924,7 +3933,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f t="shared" ref="A24:A33" si="1">EDATE(A23,1)</f>
         <v>35125</v>
@@ -3949,7 +3958,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f t="shared" si="1"/>
         <v>35156</v>
@@ -3970,7 +3979,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>35186</v>
@@ -3991,7 +4000,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>35217</v>
@@ -4012,7 +4021,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f>EDATE(A27,1)</f>
         <v>35247</v>
@@ -4033,7 +4042,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>35278</v>
@@ -4054,7 +4063,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f t="shared" si="1"/>
         <v>35309</v>
@@ -4075,7 +4084,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>35339</v>
@@ -4096,7 +4105,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f>EDATE(A31,1)</f>
         <v>35370</v>
@@ -4117,7 +4126,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>35400</v>
@@ -4138,7 +4147,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
         <v>46</v>
       </c>
@@ -4156,7 +4165,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>35431</v>
       </c>
@@ -4180,7 +4189,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13">
@@ -4198,7 +4207,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f>EDATE(A35,1)</f>
         <v>35462</v>
@@ -4219,7 +4228,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f t="shared" ref="A38:A47" si="2">EDATE(A37,1)</f>
         <v>35490</v>
@@ -4240,7 +4249,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f t="shared" si="2"/>
         <v>35521</v>
@@ -4261,7 +4270,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f t="shared" si="2"/>
         <v>35551</v>
@@ -4282,7 +4291,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>35582</v>
@@ -4303,7 +4312,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f t="shared" si="2"/>
         <v>35612</v>
@@ -4324,7 +4333,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f t="shared" si="2"/>
         <v>35643</v>
@@ -4351,7 +4360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f t="shared" si="2"/>
         <v>35674</v>
@@ -4372,7 +4381,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>35704</v>
@@ -4393,7 +4402,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f>EDATE(A45,1)</f>
         <v>35735</v>
@@ -4414,7 +4423,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>35765</v>
@@ -4439,7 +4448,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="48" t="s">
         <v>53</v>
       </c>
@@ -4457,7 +4466,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>35796</v>
       </c>
@@ -4477,7 +4486,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f>EDATE(A49,1)</f>
         <v>35827</v>
@@ -4504,7 +4513,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" ref="A51:A59" si="3">EDATE(A50,1)</f>
         <v>35855</v>
@@ -4525,7 +4534,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f t="shared" si="3"/>
         <v>35886</v>
@@ -4546,7 +4555,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f t="shared" si="3"/>
         <v>35916</v>
@@ -4567,7 +4576,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f t="shared" si="3"/>
         <v>35947</v>
@@ -4588,7 +4597,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f t="shared" si="3"/>
         <v>35977</v>
@@ -4609,7 +4618,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f t="shared" si="3"/>
         <v>36008</v>
@@ -4630,7 +4639,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f t="shared" si="3"/>
         <v>36039</v>
@@ -4651,7 +4660,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f t="shared" si="3"/>
         <v>36069</v>
@@ -4672,7 +4681,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" si="3"/>
         <v>36100</v>
@@ -4693,7 +4702,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f>EDATE(A59,1)</f>
         <v>36130</v>
@@ -4718,7 +4727,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="48" t="s">
         <v>56</v>
       </c>
@@ -4736,7 +4745,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>36161</v>
       </c>
@@ -4762,7 +4771,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f>EDATE(A62,1)</f>
         <v>36192</v>
@@ -4789,7 +4798,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f t="shared" ref="A64:A76" si="4">EDATE(A63,1)</f>
         <v>36220</v>
@@ -4816,7 +4825,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>47</v>
@@ -4838,7 +4847,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36251</v>
@@ -4863,7 +4872,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>64</v>
@@ -4887,7 +4896,7 @@
         <v>46844</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f>EDATE(A66,1)</f>
         <v>36281</v>
@@ -4912,7 +4921,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>
       <c r="B69" s="15" t="s">
         <v>58</v>
@@ -4936,7 +4945,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="52" t="s">
         <v>67</v>
       </c>
@@ -4956,7 +4965,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="50">
         <f>EDATE(A68,1)</f>
         <v>36312</v>
@@ -4977,7 +4986,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f t="shared" si="4"/>
         <v>36342</v>
@@ -4998,7 +5007,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f t="shared" si="4"/>
         <v>36373</v>
@@ -5019,7 +5028,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f t="shared" si="4"/>
         <v>36404</v>
@@ -5040,7 +5049,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f t="shared" si="4"/>
         <v>36434</v>
@@ -5061,7 +5070,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f t="shared" si="4"/>
         <v>36465</v>
@@ -5082,7 +5091,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f>EDATE(A76,1)</f>
         <v>36495</v>
@@ -5107,7 +5116,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="48" t="s">
         <v>69</v>
       </c>
@@ -5125,7 +5134,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>36526</v>
       </c>
@@ -5145,7 +5154,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f>EDATE(A79,1)</f>
         <v>36557</v>
@@ -5166,7 +5175,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f t="shared" ref="A81:A90" si="5">EDATE(A80,1)</f>
         <v>36586</v>
@@ -5187,7 +5196,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <f t="shared" si="5"/>
         <v>36617</v>
@@ -5208,7 +5217,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f t="shared" si="5"/>
         <v>36647</v>
@@ -5231,7 +5240,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -5249,7 +5258,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f>EDATE(A83,1)</f>
         <v>36678</v>
@@ -5270,7 +5279,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f t="shared" si="5"/>
         <v>36708</v>
@@ -5291,7 +5300,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <f t="shared" si="5"/>
         <v>36739</v>
@@ -5312,7 +5321,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f t="shared" si="5"/>
         <v>36770</v>
@@ -5333,7 +5342,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f t="shared" si="5"/>
         <v>36800</v>
@@ -5354,7 +5363,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" si="5"/>
         <v>36831</v>
@@ -5375,7 +5384,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f>EDATE(A90,1)</f>
         <v>36861</v>
@@ -5400,7 +5409,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="48" t="s">
         <v>72</v>
       </c>
@@ -5418,7 +5427,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>36892</v>
       </c>
@@ -5438,7 +5447,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f>EDATE(A93,1)</f>
         <v>36923</v>
@@ -5459,7 +5468,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" ref="A95:A102" si="6">EDATE(A94,1)</f>
         <v>36951</v>
@@ -5480,7 +5489,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="6"/>
         <v>36982</v>
@@ -5501,7 +5510,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="6"/>
         <v>37012</v>
@@ -5522,7 +5531,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" si="6"/>
         <v>37043</v>
@@ -5543,7 +5552,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f t="shared" si="6"/>
         <v>37073</v>
@@ -5564,7 +5573,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f t="shared" si="6"/>
         <v>37104</v>
@@ -5585,7 +5594,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f t="shared" si="6"/>
         <v>37135</v>
@@ -5606,7 +5615,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f t="shared" si="6"/>
         <v>37165</v>
@@ -5627,7 +5636,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f>EDATE(A102,1)</f>
         <v>37196</v>
@@ -5652,7 +5661,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13">
@@ -5670,7 +5679,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f>EDATE(A103,1)</f>
         <v>37226</v>
@@ -5695,7 +5704,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="48" t="s">
         <v>74</v>
       </c>
@@ -5713,7 +5722,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>37257</v>
       </c>
@@ -5733,7 +5742,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f>EDATE(A107,1)</f>
         <v>37288</v>
@@ -5754,7 +5763,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f t="shared" ref="A109:A124" si="7">EDATE(A108,1)</f>
         <v>37316</v>
@@ -5775,7 +5784,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f t="shared" si="7"/>
         <v>37347</v>
@@ -5798,7 +5807,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>75</v>
@@ -5818,7 +5827,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13">
@@ -5836,7 +5845,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f>EDATE(A110,1)</f>
         <v>37377</v>
@@ -5857,7 +5866,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f t="shared" si="7"/>
         <v>37408</v>
@@ -5882,7 +5891,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13">
@@ -5900,7 +5909,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f>EDATE(A114,1)</f>
         <v>37438</v>
@@ -5925,7 +5934,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13">
@@ -5943,7 +5952,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <f>EDATE(A116,1)</f>
         <v>37469</v>
@@ -5964,7 +5973,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f t="shared" si="7"/>
         <v>37500</v>
@@ -5989,7 +5998,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>64</v>
@@ -6011,7 +6020,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13">
@@ -6029,7 +6038,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f>EDATE(A119,1)</f>
         <v>37530</v>
@@ -6050,7 +6059,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f t="shared" si="7"/>
         <v>37561</v>
@@ -6071,7 +6080,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" si="7"/>
         <v>37591</v>
@@ -6096,7 +6105,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="48" t="s">
         <v>79</v>
       </c>
@@ -6114,7 +6123,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>37622</v>
       </c>
@@ -6134,7 +6143,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f>EDATE(A126,1)</f>
         <v>37653</v>
@@ -6159,7 +6168,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13">
@@ -6177,7 +6186,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f>EDATE(A127,1)</f>
         <v>37681</v>
@@ -6198,7 +6207,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f t="shared" ref="A130:A132" si="8">EDATE(A129,1)</f>
         <v>37712</v>
@@ -6219,7 +6228,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f t="shared" si="8"/>
         <v>37742</v>
@@ -6244,7 +6253,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f t="shared" si="8"/>
         <v>37773</v>
@@ -6269,7 +6278,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>64</v>
@@ -6291,7 +6300,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>83</v>
@@ -6313,7 +6322,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f>EDATE(A132,1)</f>
         <v>37803</v>
@@ -6338,7 +6347,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>86</v>
@@ -6360,7 +6369,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f>EDATE(A135,1)</f>
         <v>37834</v>
@@ -6385,7 +6394,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>87</v>
@@ -6407,7 +6416,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f>EDATE(A137,1)</f>
         <v>37865</v>
@@ -6432,7 +6441,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>64</v>
@@ -6454,7 +6463,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>88</v>
@@ -6476,7 +6485,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f>EDATE(A139,1)</f>
         <v>37895</v>
@@ -6501,7 +6510,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>89</v>
@@ -6523,7 +6532,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f>EDATE(A142,1)</f>
         <v>37926</v>
@@ -6548,7 +6557,7 @@
         <v>43040</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>64</v>
@@ -6570,7 +6579,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>90</v>
@@ -6592,7 +6601,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f>EDATE(A144,1)</f>
         <v>37956</v>
@@ -6617,7 +6626,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13">
@@ -6635,7 +6644,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="48" t="s">
         <v>91</v>
       </c>
@@ -6653,7 +6662,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>37987</v>
       </c>
@@ -6675,7 +6684,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>47</v>
@@ -6695,7 +6704,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>94</v>
@@ -6717,7 +6726,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f>EDATE(A150,1)</f>
         <v>38018</v>
@@ -6742,7 +6751,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>47</v>
@@ -6764,7 +6773,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>95</v>
@@ -6786,7 +6795,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <f>EDATE(A153,1)</f>
         <v>38047</v>
@@ -6811,7 +6820,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>75</v>
@@ -6831,7 +6840,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>99</v>
@@ -6853,7 +6862,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f>EDATE(A156,1)</f>
         <v>38078</v>
@@ -6878,7 +6887,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>62</v>
@@ -6900,7 +6909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>101</v>
@@ -6922,7 +6931,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f>EDATE(A159,1)</f>
         <v>38108</v>
@@ -6947,7 +6956,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>64</v>
@@ -6969,7 +6978,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>64</v>
@@ -6991,7 +7000,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>102</v>
@@ -7013,7 +7022,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f>EDATE(A162,1)</f>
         <v>38139</v>
@@ -7038,7 +7047,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13">
@@ -7056,7 +7065,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f>EDATE(A166,1)</f>
         <v>38169</v>
@@ -7081,7 +7090,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>47</v>
@@ -7103,7 +7112,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>64</v>
@@ -7125,7 +7134,7 @@
         <v>47300</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>104</v>
@@ -7147,7 +7156,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f>EDATE(A168,1)</f>
         <v>38200</v>
@@ -7172,7 +7181,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <f t="shared" ref="A173" si="9">EDATE(A172,1)</f>
         <v>38231</v>
@@ -7197,7 +7206,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>64</v>
@@ -7219,7 +7228,7 @@
         <v>11202</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13">
@@ -7237,7 +7246,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f>EDATE(A173,1)</f>
         <v>38261</v>
@@ -7262,7 +7271,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>64</v>
@@ -7286,7 +7295,7 @@
         <v>47027</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f>EDATE(A176,1)</f>
         <v>38292</v>
@@ -7311,7 +7320,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13">
@@ -7329,7 +7338,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f>EDATE(A178,1)</f>
         <v>38322</v>
@@ -7354,7 +7363,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>45</v>
@@ -7376,7 +7385,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="48" t="s">
         <v>110</v>
       </c>
@@ -7394,7 +7403,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>38353</v>
       </c>
@@ -7416,7 +7425,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13">
@@ -7434,7 +7443,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <f>EDATE(A183,1)</f>
         <v>38384</v>
@@ -7459,7 +7468,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>62</v>
@@ -7481,7 +7490,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>64</v>
@@ -7503,7 +7512,7 @@
         <v>44593</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>114</v>
@@ -7525,7 +7534,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13">
@@ -7543,7 +7552,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f>EDATE(A185,1)</f>
         <v>38412</v>
@@ -7564,7 +7573,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <f t="shared" ref="A191:A199" si="10">EDATE(A190,1)</f>
         <v>38443</v>
@@ -7585,7 +7594,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f t="shared" si="10"/>
         <v>38473</v>
@@ -7606,7 +7615,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f t="shared" si="10"/>
         <v>38504</v>
@@ -7627,7 +7636,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f t="shared" si="10"/>
         <v>38534</v>
@@ -7648,7 +7657,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f t="shared" si="10"/>
         <v>38565</v>
@@ -7669,7 +7678,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f t="shared" si="10"/>
         <v>38596</v>
@@ -7690,7 +7699,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <f t="shared" si="10"/>
         <v>38626</v>
@@ -7711,7 +7720,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f t="shared" si="10"/>
         <v>38657</v>
@@ -7732,7 +7741,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <f t="shared" si="10"/>
         <v>38687</v>
@@ -7753,7 +7762,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="48" t="s">
         <v>116</v>
       </c>
@@ -7771,7 +7780,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>38718</v>
       </c>
@@ -7791,7 +7800,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <f>EDATE(A201,1)</f>
         <v>38749</v>
@@ -7814,7 +7823,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13">
@@ -7832,7 +7841,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f>EDATE(A202,1)</f>
         <v>38777</v>
@@ -7853,7 +7862,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f t="shared" ref="A205:A214" si="11">EDATE(A204,1)</f>
         <v>38808</v>
@@ -7876,7 +7885,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13">
@@ -7894,7 +7903,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <f>EDATE(A205,1)</f>
         <v>38838</v>
@@ -7915,7 +7924,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f t="shared" si="11"/>
         <v>38869</v>
@@ -7936,7 +7945,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f t="shared" si="11"/>
         <v>38899</v>
@@ -7957,7 +7966,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f t="shared" si="11"/>
         <v>38930</v>
@@ -7978,7 +7987,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f t="shared" si="11"/>
         <v>38961</v>
@@ -7999,7 +8008,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f t="shared" si="11"/>
         <v>38991</v>
@@ -8020,7 +8029,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f t="shared" si="11"/>
         <v>39022</v>
@@ -8041,7 +8050,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f t="shared" si="11"/>
         <v>39052</v>
@@ -8066,7 +8075,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>52</v>
@@ -8085,7 +8094,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="48" t="s">
         <v>121</v>
       </c>
@@ -8100,7 +8109,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>39083</v>
       </c>
@@ -8119,7 +8128,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13">
@@ -8137,7 +8146,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f>EDATE(A217,1)</f>
         <v>39114</v>
@@ -8155,7 +8164,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f t="shared" ref="A220:A235" si="12">EDATE(A219,1)</f>
         <v>39142</v>
@@ -8177,7 +8186,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13">
@@ -8195,7 +8204,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f>EDATE(A220,1)</f>
         <v>39173</v>
@@ -8220,7 +8229,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>62</v>
@@ -8242,7 +8251,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>111</v>
@@ -8262,7 +8271,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>47</v>
@@ -8284,7 +8293,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>62</v>
@@ -8306,7 +8315,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>64</v>
@@ -8328,7 +8337,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13">
@@ -8346,7 +8355,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <f>EDATE(A222,1)</f>
         <v>39203</v>
@@ -8367,7 +8376,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f t="shared" si="12"/>
         <v>39234</v>
@@ -8388,7 +8397,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f t="shared" si="12"/>
         <v>39264</v>
@@ -8409,7 +8418,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <f t="shared" si="12"/>
         <v>39295</v>
@@ -8430,7 +8439,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f t="shared" si="12"/>
         <v>39326</v>
@@ -8451,7 +8460,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f t="shared" si="12"/>
         <v>39356</v>
@@ -8472,7 +8481,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f t="shared" si="12"/>
         <v>39387</v>
@@ -8493,7 +8502,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f>EDATE(A235,1)</f>
         <v>39417</v>
@@ -8518,7 +8527,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="48" t="s">
         <v>129</v>
       </c>
@@ -8536,7 +8545,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>39448</v>
       </c>
@@ -8556,7 +8565,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f>EDATE(A238,1)</f>
         <v>39479</v>
@@ -8577,7 +8586,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f t="shared" ref="A240:A249" si="13">EDATE(A239,1)</f>
         <v>39508</v>
@@ -8598,7 +8607,7 @@
       <c r="J240" s="12"/>
       <c r="K240" s="15"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <f t="shared" si="13"/>
         <v>39539</v>
@@ -8619,7 +8628,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f t="shared" si="13"/>
         <v>39569</v>
@@ -8640,7 +8649,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f t="shared" si="13"/>
         <v>39600</v>
@@ -8661,7 +8670,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <f t="shared" si="13"/>
         <v>39630</v>
@@ -8682,7 +8691,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f t="shared" si="13"/>
         <v>39661</v>
@@ -8703,7 +8712,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f t="shared" si="13"/>
         <v>39692</v>
@@ -8724,7 +8733,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <f t="shared" si="13"/>
         <v>39722</v>
@@ -8745,7 +8754,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f t="shared" si="13"/>
         <v>39753</v>
@@ -8766,7 +8775,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <f t="shared" si="13"/>
         <v>39783</v>
@@ -8791,7 +8800,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="48" t="s">
         <v>130</v>
       </c>
@@ -8809,7 +8818,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>39814</v>
       </c>
@@ -8829,7 +8838,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f>EDATE(A251,1)</f>
         <v>39845</v>
@@ -8850,7 +8859,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <f t="shared" ref="A253:A263" si="14">EDATE(A252,1)</f>
         <v>39873</v>
@@ -8875,7 +8884,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20"/>
       <c r="C254" s="13">
@@ -8893,7 +8902,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <f>EDATE(A253,1)</f>
         <v>39904</v>
@@ -8914,7 +8923,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f t="shared" si="14"/>
         <v>39934</v>
@@ -8935,7 +8944,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f t="shared" si="14"/>
         <v>39965</v>
@@ -8956,7 +8965,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f t="shared" si="14"/>
         <v>39995</v>
@@ -8977,7 +8986,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f t="shared" si="14"/>
         <v>40026</v>
@@ -8998,7 +9007,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f t="shared" si="14"/>
         <v>40057</v>
@@ -9019,7 +9028,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f t="shared" si="14"/>
         <v>40087</v>
@@ -9040,7 +9049,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <f t="shared" si="14"/>
         <v>40118</v>
@@ -9061,7 +9070,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <f t="shared" si="14"/>
         <v>40148</v>
@@ -9082,7 +9091,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="48" t="s">
         <v>133</v>
       </c>
@@ -9100,7 +9109,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <v>40179</v>
       </c>
@@ -9120,7 +9129,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f>EDATE(A265,1)</f>
         <v>40210</v>
@@ -9141,7 +9150,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f t="shared" ref="A267:A275" si="15">EDATE(A266,1)</f>
         <v>40238</v>
@@ -9162,7 +9171,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f t="shared" si="15"/>
         <v>40269</v>
@@ -9183,7 +9192,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <f t="shared" si="15"/>
         <v>40299</v>
@@ -9204,7 +9213,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f t="shared" si="15"/>
         <v>40330</v>
@@ -9225,7 +9234,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f t="shared" si="15"/>
         <v>40360</v>
@@ -9248,7 +9257,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f t="shared" si="15"/>
         <v>40391</v>
@@ -9269,7 +9278,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <f t="shared" si="15"/>
         <v>40422</v>
@@ -9290,7 +9299,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f t="shared" si="15"/>
         <v>40452</v>
@@ -9311,7 +9320,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f t="shared" si="15"/>
         <v>40483</v>
@@ -9332,7 +9341,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <f>EDATE(A275,1)</f>
         <v>40513</v>
@@ -9357,7 +9366,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20"/>
       <c r="C277" s="13">
@@ -9375,7 +9384,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="48" t="s">
         <v>136</v>
       </c>
@@ -9393,7 +9402,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="41">
         <v>40544</v>
       </c>
@@ -9413,7 +9422,7 @@
       <c r="J279" s="12"/>
       <c r="K279" s="15"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <f>EDATE(A279,1)</f>
         <v>40575</v>
@@ -9434,7 +9443,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f t="shared" ref="A281:A290" si="16">EDATE(A280,1)</f>
         <v>40603</v>
@@ -9455,7 +9464,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f t="shared" si="16"/>
         <v>40634</v>
@@ -9476,7 +9485,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f t="shared" si="16"/>
         <v>40664</v>
@@ -9497,7 +9506,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f t="shared" si="16"/>
         <v>40695</v>
@@ -9518,7 +9527,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <f t="shared" si="16"/>
         <v>40725</v>
@@ -9539,7 +9548,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f t="shared" si="16"/>
         <v>40756</v>
@@ -9566,7 +9575,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <f t="shared" si="16"/>
         <v>40787</v>
@@ -9587,7 +9596,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f t="shared" si="16"/>
         <v>40817</v>
@@ -9608,7 +9617,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f>EDATE(A288,1)</f>
         <v>40848</v>
@@ -9629,7 +9638,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <f t="shared" si="16"/>
         <v>40878</v>
@@ -9654,7 +9663,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="48" t="s">
         <v>138</v>
       </c>
@@ -9672,7 +9681,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>40909</v>
       </c>
@@ -9696,7 +9705,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20"/>
       <c r="C293" s="13">
@@ -9714,7 +9723,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <f>EDATE(A292,1)</f>
         <v>40940</v>
@@ -9735,7 +9744,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <f t="shared" ref="A295:A303" si="17">EDATE(A294,1)</f>
         <v>40969</v>
@@ -9756,7 +9765,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <f t="shared" si="17"/>
         <v>41000</v>
@@ -9777,7 +9786,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <f t="shared" si="17"/>
         <v>41030</v>
@@ -9798,7 +9807,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f t="shared" si="17"/>
         <v>41061</v>
@@ -9819,7 +9828,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f t="shared" si="17"/>
         <v>41091</v>
@@ -9840,7 +9849,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <f t="shared" si="17"/>
         <v>41122</v>
@@ -9865,7 +9874,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20"/>
       <c r="C301" s="13">
@@ -9883,7 +9892,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <f>EDATE(A300,1)</f>
         <v>41153</v>
@@ -9904,7 +9913,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <f t="shared" si="17"/>
         <v>41183</v>
@@ -9929,7 +9938,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20"/>
       <c r="C304" s="13">
@@ -9947,7 +9956,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <f>EDATE(A303,1)</f>
         <v>41214</v>
@@ -9972,7 +9981,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20"/>
       <c r="C306" s="13">
@@ -9990,7 +9999,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f>EDATE(A305,1)</f>
         <v>41244</v>
@@ -10015,7 +10024,7 @@
         <v>46357</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20"/>
       <c r="C308" s="13">
@@ -10033,7 +10042,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="48" t="s">
         <v>144</v>
       </c>
@@ -10051,7 +10060,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>41275</v>
       </c>
@@ -10075,7 +10084,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>145</v>
@@ -10097,7 +10106,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20"/>
       <c r="C312" s="13">
@@ -10115,7 +10124,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <f>EDATE(A310,1)</f>
         <v>41306</v>
@@ -10140,7 +10149,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20"/>
       <c r="C314" s="13">
@@ -10158,7 +10167,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f>EDATE(A313,1)</f>
         <v>41334</v>
@@ -10179,7 +10188,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f t="shared" ref="A316:A330" si="18">EDATE(A315,1)</f>
         <v>41365</v>
@@ -10204,7 +10213,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20"/>
       <c r="C317" s="13">
@@ -10222,7 +10231,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f>EDATE(A316,1)</f>
         <v>41395</v>
@@ -10247,7 +10256,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20"/>
       <c r="C319" s="13">
@@ -10265,7 +10274,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <f>EDATE(A318,1)</f>
         <v>41426</v>
@@ -10286,7 +10295,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <f t="shared" si="18"/>
         <v>41456</v>
@@ -10311,7 +10320,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>52</v>
@@ -10333,7 +10342,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20"/>
       <c r="C323" s="13">
@@ -10351,7 +10360,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <f>EDATE(A321,1)</f>
         <v>41487</v>
@@ -10376,7 +10385,7 @@
         <v>44044</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20"/>
       <c r="C325" s="13">
@@ -10394,7 +10403,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <f>EDATE(A324,1)</f>
         <v>41518</v>
@@ -10419,7 +10428,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>52</v>
@@ -10439,7 +10448,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20"/>
       <c r="C328" s="13">
@@ -10457,7 +10466,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f>EDATE(A326,1)</f>
         <v>41548</v>
@@ -10478,7 +10487,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f t="shared" si="18"/>
         <v>41579</v>
@@ -10503,7 +10512,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20"/>
       <c r="C331" s="13">
@@ -10521,7 +10530,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f>EDATE(A330,1)</f>
         <v>41609</v>
@@ -10542,7 +10551,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="59" t="s">
         <v>156</v>
       </c>
@@ -10560,7 +10569,7 @@
       <c r="J333" s="12"/>
       <c r="K333" s="15"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>41640</v>
       </c>
@@ -10584,7 +10593,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>158</v>
@@ -10606,7 +10615,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>80</v>
@@ -10628,7 +10637,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20"/>
       <c r="C337" s="13">
@@ -10646,7 +10655,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <f>EDATE(A334,1)</f>
         <v>41671</v>
@@ -10667,7 +10676,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <f t="shared" ref="A339:A350" si="19">EDATE(A338,1)</f>
         <v>41699</v>
@@ -10692,7 +10701,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>163</v>
@@ -10714,7 +10723,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20"/>
       <c r="C341" s="13">
@@ -10732,7 +10741,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <f>EDATE(A339,1)</f>
         <v>41730</v>
@@ -10753,7 +10762,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f t="shared" si="19"/>
         <v>41760</v>
@@ -10774,7 +10783,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <f>EDATE(A343,1)</f>
         <v>41791</v>
@@ -10797,7 +10806,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20"/>
       <c r="C345" s="13">
@@ -10815,7 +10824,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <f>EDATE(A344,1)</f>
         <v>41821</v>
@@ -10836,7 +10845,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f t="shared" si="19"/>
         <v>41852</v>
@@ -10857,7 +10866,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <f t="shared" si="19"/>
         <v>41883</v>
@@ -10878,7 +10887,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <f t="shared" si="19"/>
         <v>41913</v>
@@ -10899,7 +10908,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <f t="shared" si="19"/>
         <v>41944</v>
@@ -10924,7 +10933,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20"/>
       <c r="C351" s="13">
@@ -10942,7 +10951,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <f>EDATE(A350,1)</f>
         <v>41974</v>
@@ -10963,7 +10972,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="48" t="s">
         <v>168</v>
       </c>
@@ -10981,7 +10990,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>42005</v>
       </c>
@@ -11001,7 +11010,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <f>EDATE(A354,1)</f>
         <v>42036</v>
@@ -11022,7 +11031,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <f t="shared" ref="A356:A365" si="20">EDATE(A355,1)</f>
         <v>42064</v>
@@ -11049,7 +11058,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <f t="shared" si="20"/>
         <v>42095</v>
@@ -11074,7 +11083,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <f t="shared" si="20"/>
         <v>42125</v>
@@ -11101,7 +11110,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>75</v>
@@ -11121,7 +11130,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <f>EDATE(A358,1)</f>
         <v>42156</v>
@@ -11148,7 +11157,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <f t="shared" si="20"/>
         <v>42186</v>
@@ -11169,7 +11178,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <f t="shared" si="20"/>
         <v>42217</v>
@@ -11190,7 +11199,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f t="shared" si="20"/>
         <v>42248</v>
@@ -11211,7 +11220,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <f t="shared" si="20"/>
         <v>42278</v>
@@ -11232,7 +11241,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <f t="shared" si="20"/>
         <v>42309</v>
@@ -11253,7 +11262,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <f>EDATE(A365,1)</f>
         <v>42339</v>
@@ -11274,7 +11283,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="48" t="s">
         <v>173</v>
       </c>
@@ -11292,7 +11301,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>42370</v>
       </c>
@@ -11312,7 +11321,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <f>EDATE(A368,1)</f>
         <v>42401</v>
@@ -11339,7 +11348,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>75</v>
@@ -11359,7 +11368,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -11375,7 +11384,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <f>EDATE(A369,1)</f>
         <v>42430</v>
@@ -11396,7 +11405,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <f t="shared" ref="A373:A381" si="21">EDATE(A372,1)</f>
         <v>42461</v>
@@ -11417,7 +11426,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f t="shared" si="21"/>
         <v>42491</v>
@@ -11444,7 +11453,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <f t="shared" si="21"/>
         <v>42522</v>
@@ -11465,7 +11474,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <f t="shared" si="21"/>
         <v>42552</v>
@@ -11486,7 +11495,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f t="shared" si="21"/>
         <v>42583</v>
@@ -11507,7 +11516,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <f t="shared" si="21"/>
         <v>42614</v>
@@ -11528,7 +11537,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <f t="shared" si="21"/>
         <v>42644</v>
@@ -11549,7 +11558,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f t="shared" si="21"/>
         <v>42675</v>
@@ -11570,7 +11579,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f t="shared" si="21"/>
         <v>42705</v>
@@ -11591,7 +11600,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="48" t="s">
         <v>177</v>
       </c>
@@ -11609,7 +11618,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>42736</v>
       </c>
@@ -11629,7 +11638,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <f>EDATE(A383,1)</f>
         <v>42767</v>
@@ -11650,7 +11659,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <f t="shared" ref="A385:A394" si="22">EDATE(A384,1)</f>
         <v>42795</v>
@@ -11671,7 +11680,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <f t="shared" si="22"/>
         <v>42826</v>
@@ -11692,7 +11701,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <f t="shared" si="22"/>
         <v>42856</v>
@@ -11713,7 +11722,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <f t="shared" si="22"/>
         <v>42887</v>
@@ -11734,7 +11743,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <f t="shared" si="22"/>
         <v>42917</v>
@@ -11755,7 +11764,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f t="shared" si="22"/>
         <v>42948</v>
@@ -11776,7 +11785,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <f t="shared" si="22"/>
         <v>42979</v>
@@ -11797,7 +11806,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <f t="shared" si="22"/>
         <v>43009</v>
@@ -11818,7 +11827,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <f t="shared" si="22"/>
         <v>43040</v>
@@ -11839,7 +11848,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <f t="shared" si="22"/>
         <v>43070</v>
@@ -11864,7 +11873,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="48" t="s">
         <v>178</v>
       </c>
@@ -11882,7 +11891,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>43101</v>
       </c>
@@ -11902,7 +11911,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="41">
         <f>EDATE(A396,1)</f>
         <v>43132</v>
@@ -11923,7 +11932,7 @@
       <c r="J397" s="12"/>
       <c r="K397" s="15"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="41">
         <f t="shared" ref="A398:A406" si="23">EDATE(A397,1)</f>
         <v>43160</v>
@@ -11944,7 +11953,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="41">
         <f t="shared" si="23"/>
         <v>43191</v>
@@ -11969,7 +11978,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="41">
         <f t="shared" si="23"/>
         <v>43221</v>
@@ -11990,7 +11999,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="41">
         <f t="shared" si="23"/>
         <v>43252</v>
@@ -12011,7 +12020,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="41">
         <f t="shared" si="23"/>
         <v>43282</v>
@@ -12032,7 +12041,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="41">
         <f t="shared" si="23"/>
         <v>43313</v>
@@ -12053,7 +12062,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="41">
         <f t="shared" si="23"/>
         <v>43344</v>
@@ -12074,7 +12083,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="41">
         <f t="shared" si="23"/>
         <v>43374</v>
@@ -12095,7 +12104,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="41">
         <f t="shared" si="23"/>
         <v>43405</v>
@@ -12116,7 +12125,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="41">
         <f>EDATE(A406,1)</f>
         <v>43435</v>
@@ -12141,7 +12150,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="48" t="s">
         <v>180</v>
       </c>
@@ -12159,7 +12168,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>43466</v>
       </c>
@@ -12179,7 +12188,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <f>EDATE(A409,1)</f>
         <v>43497</v>
@@ -12200,7 +12209,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <f t="shared" ref="A411:A420" si="24">EDATE(A410,1)</f>
         <v>43525</v>
@@ -12221,7 +12230,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <f t="shared" si="24"/>
         <v>43556</v>
@@ -12242,7 +12251,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <f t="shared" si="24"/>
         <v>43586</v>
@@ -12263,7 +12272,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <f t="shared" si="24"/>
         <v>43617</v>
@@ -12284,7 +12293,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <f t="shared" si="24"/>
         <v>43647</v>
@@ -12305,7 +12314,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <f t="shared" si="24"/>
         <v>43678</v>
@@ -12326,7 +12335,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <f t="shared" si="24"/>
         <v>43709</v>
@@ -12347,7 +12356,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <f t="shared" si="24"/>
         <v>43739</v>
@@ -12368,7 +12377,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <f t="shared" si="24"/>
         <v>43770</v>
@@ -12389,7 +12398,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <f t="shared" si="24"/>
         <v>43800</v>
@@ -12414,7 +12423,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="48" t="s">
         <v>181</v>
       </c>
@@ -12432,7 +12441,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <v>43831</v>
       </c>
@@ -12456,7 +12465,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>184</v>
@@ -12476,7 +12485,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>62</v>
@@ -12498,7 +12507,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>114</v>
@@ -12518,7 +12527,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13">
@@ -12536,7 +12545,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <f>EDATE(A422,1)</f>
         <v>43862</v>
@@ -12557,7 +12566,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <f t="shared" ref="A428:A437" si="25">EDATE(A427,1)</f>
         <v>43891</v>
@@ -12582,7 +12591,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <f t="shared" si="25"/>
         <v>43922</v>
@@ -12603,7 +12612,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <f t="shared" si="25"/>
         <v>43952</v>
@@ -12624,7 +12633,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <f t="shared" si="25"/>
         <v>43983</v>
@@ -12645,7 +12654,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f t="shared" si="25"/>
         <v>44013</v>
@@ -12672,7 +12681,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>189</v>
@@ -12694,7 +12703,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <f>EDATE(A432,1)</f>
         <v>44044</v>
@@ -12715,7 +12724,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <f t="shared" si="25"/>
         <v>44075</v>
@@ -12736,7 +12745,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <f t="shared" si="25"/>
         <v>44105</v>
@@ -12757,7 +12766,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <f t="shared" si="25"/>
         <v>44136</v>
@@ -12778,7 +12787,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <f>EDATE(A437,1)</f>
         <v>44166</v>
@@ -12799,7 +12808,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="48" t="s">
         <v>191</v>
       </c>
@@ -12817,7 +12826,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>44197</v>
       </c>
@@ -12837,7 +12846,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="41">
         <f>EDATE(A440,1)</f>
         <v>44228</v>
@@ -12858,7 +12867,7 @@
       <c r="J441" s="12"/>
       <c r="K441" s="15"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="41">
         <f t="shared" ref="A442:A451" si="26">EDATE(A441,1)</f>
         <v>44256</v>
@@ -12879,7 +12888,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="41">
         <f t="shared" si="26"/>
         <v>44287</v>
@@ -12900,7 +12909,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="41">
         <f t="shared" si="26"/>
         <v>44317</v>
@@ -12921,7 +12930,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="41">
         <f t="shared" si="26"/>
         <v>44348</v>
@@ -12942,7 +12951,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="41">
         <f t="shared" si="26"/>
         <v>44378</v>
@@ -12963,7 +12972,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="41">
         <f t="shared" si="26"/>
         <v>44409</v>
@@ -12984,7 +12993,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="41">
         <f t="shared" si="26"/>
         <v>44440</v>
@@ -13005,7 +13014,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="41">
         <f t="shared" si="26"/>
         <v>44470</v>
@@ -13026,7 +13035,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="41">
         <f t="shared" si="26"/>
         <v>44501</v>
@@ -13047,7 +13056,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="41">
         <f t="shared" si="26"/>
         <v>44531</v>
@@ -13072,7 +13081,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="48" t="s">
         <v>192</v>
       </c>
@@ -13090,7 +13099,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>44562</v>
       </c>
@@ -13110,7 +13119,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f>EDATE(A453,1)</f>
         <v>44593</v>
@@ -13131,7 +13140,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <f t="shared" ref="A455:A477" si="27">EDATE(A454,1)</f>
         <v>44621</v>
@@ -13156,7 +13165,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <f t="shared" si="27"/>
         <v>44652</v>
@@ -13177,7 +13186,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <f t="shared" si="27"/>
         <v>44682</v>
@@ -13198,7 +13207,7 @@
       <c r="J457" s="12"/>
       <c r="K457" s="15"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f t="shared" si="27"/>
         <v>44713</v>
@@ -13219,7 +13228,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <f t="shared" si="27"/>
         <v>44743</v>
@@ -13240,7 +13249,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <f t="shared" si="27"/>
         <v>44774</v>
@@ -13261,7 +13270,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <f t="shared" si="27"/>
         <v>44805</v>
@@ -13282,7 +13291,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <f t="shared" si="27"/>
         <v>44835</v>
@@ -13303,7 +13312,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f t="shared" si="27"/>
         <v>44866</v>
@@ -13324,16 +13333,20 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <f t="shared" si="27"/>
         <v>44896</v>
       </c>
-      <c r="B464" s="20"/>
+      <c r="B464" s="20" t="s">
+        <v>200</v>
+      </c>
       <c r="C464" s="13">
         <v>1.25</v>
       </c>
-      <c r="D464" s="39"/>
+      <c r="D464" s="39">
+        <v>5</v>
+      </c>
       <c r="E464" s="9"/>
       <c r="F464" s="20"/>
       <c r="G464" s="13">
@@ -13345,7 +13358,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="48" t="s">
         <v>194</v>
       </c>
@@ -13363,7 +13376,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <f>EDATE(A464,1)</f>
         <v>44927</v>
@@ -13384,7 +13397,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <f t="shared" si="27"/>
         <v>44958</v>
@@ -13405,7 +13418,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <f t="shared" si="27"/>
         <v>44986</v>
@@ -13426,7 +13439,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <f t="shared" si="27"/>
         <v>45017</v>
@@ -13447,7 +13460,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <f t="shared" si="27"/>
         <v>45047</v>
@@ -13468,7 +13481,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <f t="shared" si="27"/>
         <v>45078</v>
@@ -13489,7 +13502,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <f t="shared" si="27"/>
         <v>45108</v>
@@ -13510,7 +13523,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <f t="shared" si="27"/>
         <v>45139</v>
@@ -13531,7 +13544,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <f t="shared" si="27"/>
         <v>45170</v>
@@ -13552,7 +13565,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <f t="shared" si="27"/>
         <v>45200</v>
@@ -13573,7 +13586,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <f t="shared" si="27"/>
         <v>45231</v>
@@ -13600,7 +13613,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <f t="shared" si="27"/>
         <v>45261</v>
@@ -13608,24 +13621,26 @@
       <c r="B477" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="C477" s="13"/>
+      <c r="C477" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D477" s="39"/>
       <c r="E477" s="9"/>
       <c r="F477" s="20"/>
-      <c r="G477" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G477" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H477" s="39">
         <v>23</v>
       </c>
       <c r="I477" s="9"/>
       <c r="J477" s="11"/>
-      <c r="K477" s="20" t="s">
+      <c r="K477" s="72" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>200</v>
@@ -13644,8 +13659,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A479" s="40"/>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A479" s="48" t="s">
+        <v>201</v>
+      </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
       <c r="D479" s="39"/>
@@ -13656,6 +13673,178 @@
       <c r="I479" s="9"/>
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A480" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B480" s="20"/>
+      <c r="C480" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D480" s="39"/>
+      <c r="E480" s="9"/>
+      <c r="F480" s="20"/>
+      <c r="G480" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H480" s="39"/>
+      <c r="I480" s="9"/>
+      <c r="J480" s="11"/>
+      <c r="K480" s="20"/>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A481" s="40">
+        <v>45351</v>
+      </c>
+      <c r="B481" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C481" s="13"/>
+      <c r="D481" s="39"/>
+      <c r="E481" s="9"/>
+      <c r="F481" s="20"/>
+      <c r="G481" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H481" s="39">
+        <v>1</v>
+      </c>
+      <c r="I481" s="9"/>
+      <c r="J481" s="11"/>
+      <c r="K481" s="58">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A482" s="40"/>
+      <c r="B482" s="20"/>
+      <c r="C482" s="13"/>
+      <c r="D482" s="39"/>
+      <c r="E482" s="9"/>
+      <c r="F482" s="20"/>
+      <c r="G482" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H482" s="39"/>
+      <c r="I482" s="9"/>
+      <c r="J482" s="11"/>
+      <c r="K482" s="20"/>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A483" s="40"/>
+      <c r="B483" s="20"/>
+      <c r="C483" s="13"/>
+      <c r="D483" s="39"/>
+      <c r="E483" s="9"/>
+      <c r="F483" s="20"/>
+      <c r="G483" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H483" s="39"/>
+      <c r="I483" s="9"/>
+      <c r="J483" s="11"/>
+      <c r="K483" s="20"/>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A484" s="40"/>
+      <c r="B484" s="20"/>
+      <c r="C484" s="13"/>
+      <c r="D484" s="39"/>
+      <c r="E484" s="9"/>
+      <c r="F484" s="20"/>
+      <c r="G484" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H484" s="39"/>
+      <c r="I484" s="9"/>
+      <c r="J484" s="11"/>
+      <c r="K484" s="20"/>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A485" s="40"/>
+      <c r="B485" s="20"/>
+      <c r="C485" s="13"/>
+      <c r="D485" s="39"/>
+      <c r="E485" s="9"/>
+      <c r="F485" s="20"/>
+      <c r="G485" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H485" s="39"/>
+      <c r="I485" s="9"/>
+      <c r="J485" s="11"/>
+      <c r="K485" s="20"/>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A486" s="40"/>
+      <c r="B486" s="20"/>
+      <c r="C486" s="13"/>
+      <c r="D486" s="39"/>
+      <c r="E486" s="9"/>
+      <c r="F486" s="20"/>
+      <c r="G486" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H486" s="39"/>
+      <c r="I486" s="9"/>
+      <c r="J486" s="11"/>
+      <c r="K486" s="20"/>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A487" s="40"/>
+      <c r="B487" s="20"/>
+      <c r="C487" s="13"/>
+      <c r="D487" s="39"/>
+      <c r="E487" s="9"/>
+      <c r="F487" s="20"/>
+      <c r="G487" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H487" s="39"/>
+      <c r="I487" s="9"/>
+      <c r="J487" s="11"/>
+      <c r="K487" s="20"/>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A488" s="40"/>
+      <c r="B488" s="20"/>
+      <c r="C488" s="13"/>
+      <c r="D488" s="39"/>
+      <c r="E488" s="9"/>
+      <c r="F488" s="20"/>
+      <c r="G488" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H488" s="39"/>
+      <c r="I488" s="9"/>
+      <c r="J488" s="11"/>
+      <c r="K488" s="20"/>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A489" s="41"/>
+      <c r="B489" s="15"/>
+      <c r="C489" s="42"/>
+      <c r="D489" s="43"/>
+      <c r="E489" s="9"/>
+      <c r="F489" s="15"/>
+      <c r="G489" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H489" s="43"/>
+      <c r="I489" s="9"/>
+      <c r="J489" s="12"/>
+      <c r="K489" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13672,10 +13861,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13698,7 +13887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -13706,21 +13895,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="70" t="s">
         <v>33</v>
       </c>
@@ -13733,7 +13922,7 @@
       <c r="K1" s="71"/>
       <c r="L1" s="71"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13762,7 +13951,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0.375</v>
       </c>
@@ -13792,17 +13981,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -13823,7 +14012,7 @@
       <c r="K6" s="71"/>
       <c r="L6" s="71"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -13850,7 +14039,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13876,7 +14065,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13902,7 +14091,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13928,7 +14117,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13954,7 +14143,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13980,7 +14169,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14006,7 +14195,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14032,7 +14221,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14052,7 +14241,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14072,7 +14261,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14092,7 +14281,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14113,7 +14302,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14134,7 +14323,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14155,7 +14344,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14176,7 +14365,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14197,7 +14386,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -14218,7 +14407,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14239,7 +14428,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14260,7 +14449,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14281,7 +14470,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14302,7 +14491,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14323,7 +14512,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14344,7 +14533,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14365,7 +14554,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14386,7 +14575,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14407,7 +14596,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14428,7 +14617,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14449,7 +14638,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14470,7 +14659,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14491,7 +14680,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14512,7 +14701,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14521,7 +14710,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14530,7 +14719,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14539,7 +14728,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14548,7 +14737,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14557,7 +14746,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14566,7 +14755,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14575,7 +14764,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14584,7 +14773,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14593,7 +14782,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14602,7 +14791,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14611,7 +14800,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14620,7 +14809,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14629,7 +14818,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14638,7 +14827,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14647,7 +14836,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14656,7 +14845,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14665,7 +14854,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14674,7 +14863,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14683,7 +14872,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14692,7 +14881,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14701,7 +14890,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14710,7 +14899,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14719,7 +14908,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14728,7 +14917,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14737,7 +14926,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14746,7 +14935,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14755,7 +14944,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14764,7 +14953,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14773,7 +14962,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
